--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -445,91 +445,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Katrin</t>
+          <t xml:space="preserve">Elisey </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dart Vader</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lea</t>
+          <t>Katrin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vova</t>
+          <t>Dart Vader</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rect</t>
+          <t>Lea</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tima</t>
+          <t>Vova</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Rect</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sanya</t>
+          <t>Tima</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dima</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
